--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
-  <si>
-    <t>Republic of  the philippines</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Department of the Interior and Local Government</t>
   </si>
@@ -26,264 +32,265 @@
     <t>Region Office IV - A</t>
   </si>
   <si>
+    <t>SUPPLIER NAME</t>
+  </si>
+  <si>
+    <t>CONTACT</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Dear Sir/Madam</t>
+  </si>
+  <si>
+    <t>RFQ NO.</t>
+  </si>
+  <si>
+    <t>Approved Budget for the Contract (ABC)</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>End User</t>
+  </si>
+  <si>
+    <t>Thank you.</t>
+  </si>
+  <si>
+    <t>Prepared by:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head, BAC Secretariat                                                   </t>
+  </si>
+  <si>
+    <t>Noted by:</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>Chairman, BAC</t>
+  </si>
+  <si>
+    <t>Received by:</t>
+  </si>
+  <si>
     <t>BIDS AND AWARDS COMMITTEE</t>
   </si>
   <si>
-    <t>SHOPPING AND SMALL VALUE PROCUREMENT COMMITTEE</t>
-  </si>
-  <si>
-    <t>Lenylyn Livelo Gutierrez</t>
-  </si>
-  <si>
-    <t>livelo  Trading</t>
-  </si>
-  <si>
-    <t>National Highway, Dayap Caluan Laguna</t>
-  </si>
-  <si>
-    <t>Dear Sir/Madam</t>
+    <t>For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or dilg4a.bac@gmail.com</t>
   </si>
   <si>
     <t>May we invite you to submit your quotation for the following Request for Quotation (RFQ):</t>
   </si>
   <si>
-    <t>RFQ NO.</t>
-  </si>
-  <si>
-    <t>2020-107</t>
-  </si>
-  <si>
-    <t>Approved Budget for the Contract (ABC)</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replacement tires of DILG Service Vehicles (Crosswind 8994 and 8974) as part of Preventive Maintenance  </t>
-  </si>
-  <si>
-    <t>End User</t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or dilg4a.bac@gmail.com</t>
-  </si>
-  <si>
-    <t>Thank you.</t>
-  </si>
-  <si>
-    <t>Prepared by:</t>
-  </si>
-  <si>
-    <t>Noted by:</t>
-  </si>
-  <si>
-    <t>MARIA CONCEPCION A. GONZALES</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head, BAC Secretariat                                                   </t>
-  </si>
-  <si>
-    <t>Chairman, BAC</t>
-  </si>
-  <si>
-    <t>Received by:</t>
+    <t>BEZALEEL O. SOLTURA</t>
+  </si>
+  <si>
+    <t>Republic of  the Philippines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -299,7 +306,13 @@
     <xdr:ext cx="752475" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -311,7 +324,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="2712720" y="152400"/>
+          <a:ext cx="752475" cy="762000"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -333,39 +349,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +416,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,249 +460,213 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" view="pageLayout" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="8.109375" customWidth="true" style="2"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="13.77734375" customWidth="true" style="2"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="E1" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="C8" s="1"/>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="C11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -698,9 +678,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -712,9 +692,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -726,7 +706,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -738,7 +718,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -750,9 +730,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -764,7 +744,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -776,9 +756,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -790,10 +770,10 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" customHeight="1" ht="2.4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+    <row r="21" spans="1:10" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -802,107 +782,99 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+    <row r="22" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" customHeight="1" ht="28.2">
-      <c r="A23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20">
-        <v>52000</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+    <row r="23" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -914,9 +886,9 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -928,9 +900,9 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -942,7 +914,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -953,7 +925,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -965,23 +937,23 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -993,39 +965,39 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="3" t="s">
-        <v>21</v>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1037,7 +1009,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1049,7 +1021,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1061,9 +1033,9 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1075,7 +1047,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1087,13 +1059,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1101,7 +1071,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1113,7 +1083,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1126,8 +1096,13 @@
       <c r="J45" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <mergeCells count="15">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="D24:I27"/>
+    <mergeCell ref="A24:C27"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:I28"/>
@@ -1137,24 +1112,9 @@
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D24:I27"/>
-    <mergeCell ref="A24:C27"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>Republic of  the Philippines</t>
+  </si>
   <si>
     <t>Department of the Interior and Local Government</t>
   </si>
@@ -32,265 +26,273 @@
     <t>Region Office IV - A</t>
   </si>
   <si>
-    <t>SUPPLIER NAME</t>
-  </si>
-  <si>
-    <t>CONTACT</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
+    <t>BIDS AND AWARDS COMMITTEE</t>
+  </si>
+  <si>
+    <t>Angelica Ann Allamen</t>
+  </si>
+  <si>
+    <t>347 School Office Supplies, Inc.</t>
+  </si>
+  <si>
+    <t>347 San Vicente St.,  Cor. T. Pinpin, Binondo, Manila</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
   </si>
   <si>
+    <t>May we invite you to submit your quotation for the following Request for Quotation (RFQ):</t>
+  </si>
+  <si>
     <t>RFQ NO.</t>
   </si>
   <si>
+    <t>2022-00021</t>
+  </si>
+  <si>
     <t>Approved Budget for the Contract (ABC)</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
+    <t>LOREM IPSUM</t>
+  </si>
+  <si>
     <t>End User</t>
   </si>
   <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or dilg4a.bac@gmail.com</t>
+  </si>
+  <si>
     <t>Thank you.</t>
   </si>
   <si>
     <t>Prepared by:</t>
   </si>
   <si>
+    <t>Noted by:</t>
+  </si>
+  <si>
+    <t>BEZALEEL O. SOLTURA</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Head, BAC Secretariat                                                   </t>
   </si>
   <si>
-    <t>Noted by:</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
-  </si>
-  <si>
     <t>Chairman, BAC</t>
   </si>
   <si>
     <t>Received by:</t>
-  </si>
-  <si>
-    <t>BIDS AND AWARDS COMMITTEE</t>
-  </si>
-  <si>
-    <t>For further inquiries, you may contact the BAC Secretariat Office at (049) 827-3143 or dilg4a.bac@gmail.com</t>
-  </si>
-  <si>
-    <t>May we invite you to submit your quotation for the following Request for Quotation (RFQ):</t>
-  </si>
-  <si>
-    <t>BEZALEEL O. SOLTURA</t>
-  </si>
-  <si>
-    <t>Republic of  the Philippines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="7">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -306,13 +308,7 @@
     <xdr:ext cx="752475" cy="762000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -324,10 +320,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2712720" y="152400"/>
-          <a:ext cx="752475" cy="762000"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -349,39 +342,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,175 +453,209 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="160" view="pageLayout" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
-    <col min="3" max="7" width="8.85546875" style="2"/>
-    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="8.140625" customWidth="true" style="2"/>
+    <col min="3" max="3" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true" style="2"/>
+    <col min="9" max="9" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="C6" s="1"/>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -636,19 +663,19 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="C8" s="1"/>
       <c r="D8" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="C10" s="19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -656,7 +683,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -664,9 +691,9 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -678,9 +705,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -692,9 +719,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -706,7 +733,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -718,7 +745,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -730,9 +757,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -744,7 +771,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -756,9 +783,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -770,7 +797,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" customHeight="1" ht="2.45">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -782,13 +809,15 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" customHeight="1" ht="16.15">
       <c r="A22" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -796,13 +825,15 @@
       <c r="I22" s="15"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" customHeight="1" ht="28.15">
       <c r="A23" s="16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="17">
+        <v>456</v>
+      </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -810,13 +841,15 @@
       <c r="I23" s="17"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -824,7 +857,7 @@
       <c r="I24" s="20"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -836,7 +869,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -848,7 +881,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -860,13 +893,15 @@
       <c r="I27" s="20"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -874,7 +909,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -886,9 +921,9 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -900,9 +935,9 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -914,7 +949,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -925,7 +960,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -937,23 +972,23 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -965,7 +1000,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="6" t="s">
         <v>20</v>
       </c>
@@ -974,30 +1009,30 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1009,7 +1044,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1021,7 +1056,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1033,9 +1068,9 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1047,7 +1082,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1059,9 +1094,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="1"/>
@@ -1071,7 +1108,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1083,7 +1120,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1096,7 +1133,8 @@
       <c r="J45" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="D8:G8"/>
@@ -1113,8 +1151,17 @@
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D23:I23"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/export_pos.xlsx
+++ b/export_pos.xlsx
@@ -29,13 +29,13 @@
     <t>BIDS AND AWARDS COMMITTEE</t>
   </si>
   <si>
-    <t>Angelica Ann Allamen</t>
-  </si>
-  <si>
-    <t>347 School Office Supplies, Inc.</t>
-  </si>
-  <si>
-    <t>347 San Vicente St.,  Cor. T. Pinpin, Binondo, Manila</t>
+    <t>Cindy Trasmano</t>
+  </si>
+  <si>
+    <t>88 Hot Spring Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #9061 Manila S Rd, Calamba, 4027 Laguna</t>
   </si>
   <si>
     <t>Dear Sir/Madam</t>
@@ -47,7 +47,7 @@
     <t>RFQ NO.</t>
   </si>
   <si>
-    <t>2022-00021</t>
+    <t>2022-0001</t>
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC)</t>
@@ -832,7 +832,7 @@
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>456</v>
+        <v>300</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
